--- a/Products.xlsx
+++ b/Products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mnqob\source\repos\FruitSA_Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3FCA26-0DAB-4965-80F4-019AC6242481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2637DB1E-3A21-4FF9-A087-997981543DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>ProductId</t>
   </si>
@@ -52,12 +52,6 @@
     <t>UpdatedAt</t>
   </si>
   <si>
-    <t>\images\products\</t>
-  </si>
-  <si>
-    <t>admin@FruitSA.com</t>
-  </si>
-  <si>
     <t>8 Sep 2024, 22:57:33</t>
   </si>
   <si>
@@ -70,9 +64,6 @@
     <t>11 Sep 2024, 22:57:33</t>
   </si>
   <si>
-    <t>Apple</t>
-  </si>
-  <si>
     <t>Tomato</t>
   </si>
   <si>
@@ -92,6 +83,24 @@
   </si>
   <si>
     <t>202409-002</t>
+  </si>
+  <si>
+    <t>System@gmail.com</t>
+  </si>
+  <si>
+    <t>\images\products\Tomato.png</t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>\images\products\Steak.png</t>
+  </si>
+  <si>
+    <t>\images\products\ColdMeat.png</t>
+  </si>
+  <si>
+    <t>\images\products\Banana_Fruit.png</t>
   </si>
 </sst>
 </file>
@@ -437,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -491,13 +500,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -506,16 +515,16 @@
         <v>100</v>
       </c>
       <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -523,13 +532,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -538,16 +547,16 @@
         <v>780</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -555,13 +564,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -570,16 +579,16 @@
         <v>1116</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -587,13 +596,13 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -602,16 +611,16 @@
         <v>9869</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
